--- a/DRL_UTE/Doc/FileUpload/tblSinhVien.xlsx
+++ b/DRL_UTE/Doc/FileUpload/tblSinhVien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EXCEL_AVT_MẪU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB763E-B97D-41BF-BDFA-E7A531277E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDD591-8A3E-4AEB-8F13-9F40523FFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78F25F8B-768D-42B4-B80E-FDD7EF1ECE09}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{10BA3DA0-2EAC-4BEA-84DC-EF3A5E66F054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>maLop</t>
+  </si>
   <si>
     <t>maSV</t>
   </si>
@@ -40,24 +44,21 @@
     <t>tenSV</t>
   </si>
   <si>
-    <t>maLop</t>
-  </si>
-  <si>
     <t>gioiTinh</t>
   </si>
   <si>
-    <t>Nguyên Test</t>
+    <t>A</t>
   </si>
   <si>
     <t>18T3</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>SDT</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>ngaySinh</t>
   </si>
   <si>
@@ -74,28 +75,13 @@
   </si>
   <si>
     <t>avatar</t>
-  </si>
-  <si>
-    <t>adADdADd</t>
-  </si>
-  <si>
-    <t>5452fsdfa</t>
-  </si>
-  <si>
-    <t>18T4</t>
-  </si>
-  <si>
-    <t>18T5</t>
-  </si>
-  <si>
-    <t>2011505310383</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,26 +90,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,23 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,40 +441,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC472AD-C5C2-4D3A-ACE7-C818EB8FC8EE}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B33B4A-24AC-4974-B1E3-50B11782F412}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -518,8 +493,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="2">
+        <v>1811505310378</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -527,42 +502,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
